--- a/dev/OSTicket_Scripts.xlsx
+++ b/dev/OSTicket_Scripts.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="ost_ticket__cdata.csv" sheetId="1" r:id="rId1"/>
+    <sheet name="ost_ticket.csv" sheetId="3" r:id="rId1"/>
+    <sheet name="ost_ticket__cdata.csv" sheetId="1" r:id="rId2"/>
+    <sheet name="Qry" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="91">
   <si>
     <t>CAC Vol 4 P161</t>
   </si>
@@ -166,13 +168,139 @@
   </si>
   <si>
     <t>CAC Vol 10 Location 2745</t>
+  </si>
+  <si>
+    <t>FROM ost_ticket t, ost_ticket__cdata tc, ost_user u</t>
+  </si>
+  <si>
+    <t>WHERE tc.ticket_id = t.ticket_id</t>
+  </si>
+  <si>
+    <t>AND u.id = t.user_id</t>
+  </si>
+  <si>
+    <t>AND t.status = 'open'</t>
+  </si>
+  <si>
+    <t>SELECT t.ticket_id, t.number, tc.subject, u.name, t.topic_id, t.staff_id, t.source, t.created, t.updated</t>
+  </si>
+  <si>
+    <t>AND (t.topic_id = 0 OR t.staff_id = 0)</t>
+  </si>
+  <si>
+    <t>Get open tickets with no topic or no assignment</t>
+  </si>
+  <si>
+    <t>Archie D.Melville</t>
+  </si>
+  <si>
+    <t>JND Vol synopsis Ezra-Malachi Location 4246</t>
+  </si>
+  <si>
+    <t>JND Vol synopsis Coll - Revelation Location 27</t>
+  </si>
+  <si>
+    <t>JND Vol 12 Location 2983</t>
+  </si>
+  <si>
+    <t>Archie Melville</t>
+  </si>
+  <si>
+    <t>CAC Vol 21 Location 1686</t>
+  </si>
+  <si>
+    <t>CAC Vol 21 Location 1144</t>
+  </si>
+  <si>
+    <t>CAC Vol 16 Location 142</t>
+  </si>
+  <si>
+    <t>CAC Vol 16 Location 128</t>
+  </si>
+  <si>
+    <t>CAC Vol 16 Location 52</t>
+  </si>
+  <si>
+    <t>CAC Vol 16 Location 50</t>
+  </si>
+  <si>
+    <t>CAC Vol 16 Location 46</t>
+  </si>
+  <si>
+    <t>CAC Vol 16 Location 45</t>
+  </si>
+  <si>
+    <t>CAC Vol 16 Location 36</t>
+  </si>
+  <si>
+    <t>CAC Vol 16 Location 24</t>
+  </si>
+  <si>
+    <t>CAC Vol 16 Location 21</t>
+  </si>
+  <si>
+    <t>CAC Vol 16 Location 16</t>
+  </si>
+  <si>
+    <t>CAC Vol 14 Location 546</t>
+  </si>
+  <si>
+    <t>CAC Vol 14 Location 385</t>
+  </si>
+  <si>
+    <t>CAC Vol 13 Location 3179</t>
+  </si>
+  <si>
+    <t>CAC Vol 13 Location 612</t>
+  </si>
+  <si>
+    <t>CAC Vol 13 Location 377</t>
+  </si>
+  <si>
+    <t>CAC Vol</t>
+  </si>
+  <si>
+    <t>Dennis Bradley</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>updated</t>
+  </si>
+  <si>
+    <t>created</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>staff_id</t>
+  </si>
+  <si>
+    <t>topic_id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>ticket_id</t>
+  </si>
+  <si>
+    <t>SQL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -196,6 +324,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -214,23 +356,89 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="dd/mm/yy\ hh:mm"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J25" totalsRowShown="0">
+  <autoFilter ref="A1:J25"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="ticket_id"/>
+    <tableColumn id="2" name="number"/>
+    <tableColumn id="3" name="subject"/>
+    <tableColumn id="4" name="name"/>
+    <tableColumn id="5" name="topic_id"/>
+    <tableColumn id="6" name="staff_id"/>
+    <tableColumn id="7" name="source"/>
+    <tableColumn id="8" name="created" dataDxfId="1"/>
+    <tableColumn id="9" name="updated"/>
+    <tableColumn id="10" name="SQL" dataDxfId="0">
+      <calculatedColumnFormula>"update ost_ticket set topic_id=12, staff_id=1 where ticket_id="&amp;A1&amp;";"</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -555,10 +763,870 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" customWidth="1"/>
+    <col min="3" max="3" width="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="45.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>63</v>
+      </c>
+      <c r="B2">
+        <v>118293</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>40544.757743055554</v>
+      </c>
+      <c r="I2" s="1">
+        <v>40569.838912037034</v>
+      </c>
+      <c r="J2" s="2" t="str">
+        <f t="shared" ref="J2:J25" si="0">"update ost_ticket set topic_id=12, staff_id=1 where ticket_id="&amp;A1&amp;";"</f>
+        <v>update ost_ticket set topic_id=12, staff_id=1 where ticket_id=ticket_id;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>72</v>
+      </c>
+      <c r="B3">
+        <v>970468</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>40546.280358796299</v>
+      </c>
+      <c r="I3" s="1">
+        <v>40548.864259259259</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" si="0"/>
+        <v>update ost_ticket set topic_id=12, staff_id=1 where ticket_id=63;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>80</v>
+      </c>
+      <c r="B4">
+        <v>657233</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>40557.44908564815</v>
+      </c>
+      <c r="I4" s="1">
+        <v>40595.784398148149</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>update ost_ticket set topic_id=12, staff_id=1 where ticket_id=72;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>229</v>
+      </c>
+      <c r="B5">
+        <v>632952</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>40620.903506944444</v>
+      </c>
+      <c r="I5" s="1">
+        <v>40620.909490740742</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>update ost_ticket set topic_id=12, staff_id=1 where ticket_id=80;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>230</v>
+      </c>
+      <c r="B6">
+        <v>373039</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>40620.908842592595</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>update ost_ticket set topic_id=12, staff_id=1 where ticket_id=229;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>231</v>
+      </c>
+      <c r="B7">
+        <v>391366</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>40620.911770833336</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>update ost_ticket set topic_id=12, staff_id=1 where ticket_id=230;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>232</v>
+      </c>
+      <c r="B8">
+        <v>135273</v>
+      </c>
+      <c r="C8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>40620.91578703704</v>
+      </c>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>update ost_ticket set topic_id=12, staff_id=1 where ticket_id=231;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>233</v>
+      </c>
+      <c r="B9">
+        <v>980642</v>
+      </c>
+      <c r="C9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>40621.813611111109</v>
+      </c>
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>update ost_ticket set topic_id=12, staff_id=1 where ticket_id=232;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>234</v>
+      </c>
+      <c r="B10">
+        <v>351007</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>40621.817719907405</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>update ost_ticket set topic_id=12, staff_id=1 where ticket_id=233;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>235</v>
+      </c>
+      <c r="B11">
+        <v>844129</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>40621.823425925926</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>update ost_ticket set topic_id=12, staff_id=1 where ticket_id=234;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>236</v>
+      </c>
+      <c r="B12">
+        <v>727702</v>
+      </c>
+      <c r="C12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>40621.830405092594</v>
+      </c>
+      <c r="I12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>update ost_ticket set topic_id=12, staff_id=1 where ticket_id=235;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>237</v>
+      </c>
+      <c r="B13">
+        <v>480342</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="1">
+        <v>40621.837106481478</v>
+      </c>
+      <c r="I13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>update ost_ticket set topic_id=12, staff_id=1 where ticket_id=236;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>238</v>
+      </c>
+      <c r="B14">
+        <v>646420</v>
+      </c>
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="1">
+        <v>40621.843136574076</v>
+      </c>
+      <c r="I14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>update ost_ticket set topic_id=12, staff_id=1 where ticket_id=237;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>239</v>
+      </c>
+      <c r="B15">
+        <v>994699</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="1">
+        <v>40621.846041666664</v>
+      </c>
+      <c r="I15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>update ost_ticket set topic_id=12, staff_id=1 where ticket_id=238;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>241</v>
+      </c>
+      <c r="B16">
+        <v>439950</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="1">
+        <v>40621.84988425926</v>
+      </c>
+      <c r="I16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v>update ost_ticket set topic_id=12, staff_id=1 where ticket_id=239;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <v>242</v>
+      </c>
+      <c r="B17">
+        <v>621186</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="1">
+        <v>40621.852685185186</v>
+      </c>
+      <c r="I17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v>update ost_ticket set topic_id=12, staff_id=1 where ticket_id=241;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
+        <v>243</v>
+      </c>
+      <c r="B18">
+        <v>179572</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="1">
+        <v>40621.855798611112</v>
+      </c>
+      <c r="I18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="0"/>
+        <v>update ost_ticket set topic_id=12, staff_id=1 where ticket_id=242;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <v>244</v>
+      </c>
+      <c r="B19">
+        <v>788899</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>40621.860023148147</v>
+      </c>
+      <c r="I19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="0"/>
+        <v>update ost_ticket set topic_id=12, staff_id=1 where ticket_id=243;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>245</v>
+      </c>
+      <c r="B20">
+        <v>118223</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="1">
+        <v>40621.862812500003</v>
+      </c>
+      <c r="I20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v>update ost_ticket set topic_id=12, staff_id=1 where ticket_id=244;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <v>246</v>
+      </c>
+      <c r="B21">
+        <v>581112</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="1">
+        <v>40621.870706018519</v>
+      </c>
+      <c r="I21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="0"/>
+        <v>update ost_ticket set topic_id=12, staff_id=1 where ticket_id=245;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <v>247</v>
+      </c>
+      <c r="B22">
+        <v>145061</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="1">
+        <v>40621.874085648145</v>
+      </c>
+      <c r="I22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="0"/>
+        <v>update ost_ticket set topic_id=12, staff_id=1 where ticket_id=246;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <v>248</v>
+      </c>
+      <c r="B23">
+        <v>631954</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="1">
+        <v>40621.902916666666</v>
+      </c>
+      <c r="I23" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="0"/>
+        <v>update ost_ticket set topic_id=12, staff_id=1 where ticket_id=247;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
+        <v>249</v>
+      </c>
+      <c r="B24">
+        <v>646570</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="1">
+        <v>40621.915636574071</v>
+      </c>
+      <c r="I24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="0"/>
+        <v>update ost_ticket set topic_id=12, staff_id=1 where ticket_id=248;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <v>250</v>
+      </c>
+      <c r="B25">
+        <v>519696</v>
+      </c>
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="1">
+        <v>40621.932488425926</v>
+      </c>
+      <c r="I25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="0"/>
+        <v>update ost_ticket set topic_id=12, staff_id=1 where ticket_id=249;</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4144,4 +5212,62 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="82" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" ht="20">
+      <c r="A3" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>